--- a/Gantt Chart/V1.3.1 [2021-07-15] Gantt Chart Cycle 1 Sprint 3.xlsx
+++ b/Gantt Chart/V1.3.1 [2021-07-15] Gantt Chart Cycle 1 Sprint 3.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://burapha-my.sharepoint.com/personal/62160157_my_buu_ac_th/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\TEAM4\team4\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234A3B6C-93F9-45B8-94B9-2C748E64B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B1C54-3562-49A3-93D6-E758318647EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-270" yWindow="705" windowWidth="21060" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 3" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
   <si>
     <t>System : Container Drop Management System : CDMS (ระบบจัดการตู้คอนเทนเนอร์)</t>
   </si>
@@ -782,6 +771,9 @@
   </si>
   <si>
     <t>นายกล้ายุทธ ครองแก้ว</t>
+  </si>
+  <si>
+    <t>ตรวจ Gantt Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -1531,6 +1523,120 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,125 +1658,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1"/>
@@ -2082,26 +2074,26 @@
     <row r="1" spans="2:11" ht="36" customHeight="1">
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="2:11" ht="36" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
       <c r="H2" s="54"/>
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
@@ -2111,11 +2103,11 @@
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
@@ -2125,11 +2117,11 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -2150,22 +2142,22 @@
     <row r="6" spans="2:11" ht="36" customHeight="1">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="2:11" ht="36" customHeight="1">
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87" t="s">
+      <c r="G7" s="124"/>
+      <c r="H7" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="113"/>
       <c r="J7" s="76" t="s">
         <v>7</v>
       </c>
@@ -2183,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="113"/>
       <c r="J8" s="76" t="s">
         <v>12</v>
       </c>
@@ -2204,10 +2196,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="76" t="s">
         <v>17</v>
       </c>
@@ -2217,10 +2209,10 @@
       <c r="C10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2239,10 +2231,10 @@
       <c r="C11" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="88"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2260,18 +2252,18 @@
       <c r="C12" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="87"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
     </row>
@@ -2286,17 +2278,17 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:11" ht="36" customHeight="1">
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
     </row>
     <row r="16" spans="2:11" ht="36" customHeight="1">
       <c r="C16" s="9" t="s">
@@ -2512,17 +2504,17 @@
       <c r="K26" s="38"/>
     </row>
     <row r="27" spans="3:11" ht="36" customHeight="1">
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
     </row>
     <row r="28" spans="3:11" ht="36" customHeight="1">
       <c r="C28" s="17" t="s">
@@ -2582,17 +2574,17 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="3:11" ht="36" customHeight="1">
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
     </row>
     <row r="32" spans="3:11" ht="66" customHeight="1">
       <c r="C32" s="26" t="s">
@@ -3059,15 +3051,15 @@
       </c>
     </row>
     <row r="57" spans="3:12" ht="36" customHeight="1">
-      <c r="C57" s="96" t="s">
+      <c r="C57" s="115" t="s">
         <v>106</v>
       </c>
       <c r="D57" s="46"/>
       <c r="E57" s="46"/>
-      <c r="F57" s="118" t="s">
+      <c r="F57" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="119"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="65"/>
       <c r="I57" s="65"/>
       <c r="J57" s="65"/>
@@ -3075,7 +3067,7 @@
       <c r="L57" s="66"/>
     </row>
     <row r="58" spans="3:12" ht="64.5" customHeight="1">
-      <c r="C58" s="96"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="46"/>
       <c r="E58" s="46"/>
       <c r="F58" s="59" t="s">
@@ -3089,25 +3081,25 @@
       <c r="L58" s="51"/>
     </row>
     <row r="59" spans="3:12" ht="69" customHeight="1">
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="109"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="109" t="s">
+      <c r="J59" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="K59" s="109"/>
+      <c r="K59" s="103"/>
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="3:12" ht="70.5" customHeight="1">
-      <c r="C60" s="93"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="57"/>
       <c r="E60" s="72" t="s">
         <v>112</v>
@@ -3116,14 +3108,14 @@
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
       <c r="I60" s="64"/>
-      <c r="J60" s="108" t="s">
+      <c r="J60" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="K60" s="109"/>
+      <c r="K60" s="103"/>
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="3:12" ht="99" customHeight="1">
-      <c r="C61" s="93"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="57"/>
       <c r="E61" s="72" t="s">
         <v>114</v>
@@ -3131,15 +3123,15 @@
       <c r="F61" s="58"/>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
-      <c r="I61" s="109" t="s">
+      <c r="I61" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="103"/>
       <c r="L61" s="16"/>
     </row>
     <row r="62" spans="3:12" ht="63.6" customHeight="1">
-      <c r="C62" s="110" t="s">
+      <c r="C62" s="104" t="s">
         <v>116</v>
       </c>
       <c r="D62" s="53"/>
@@ -3152,14 +3144,14 @@
       <c r="I62" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="111" t="s">
+      <c r="J62" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="K62" s="112"/>
+      <c r="K62" s="106"/>
       <c r="L62" s="16"/>
     </row>
     <row r="63" spans="3:12" ht="97.5" customHeight="1">
-      <c r="C63" s="110"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="53"/>
       <c r="E63" s="73" t="s">
         <v>120</v>
@@ -3173,29 +3165,29 @@
       <c r="L63" s="16"/>
     </row>
     <row r="64" spans="3:12" ht="76.150000000000006" customHeight="1">
-      <c r="C64" s="95" t="s">
+      <c r="C64" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="106" t="s">
+      <c r="D64" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="E64" s="106"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="123" t="s">
+      <c r="G64" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="H64" s="124"/>
+      <c r="H64" s="90"/>
       <c r="I64" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="J64" s="106" t="s">
+      <c r="J64" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="K64" s="107"/>
+      <c r="K64" s="101"/>
       <c r="L64" s="16"/>
     </row>
     <row r="65" spans="3:13" ht="63.6" customHeight="1">
-      <c r="C65" s="95"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="16"/>
       <c r="E65" s="71" t="s">
         <v>125</v>
@@ -3209,7 +3201,7 @@
       <c r="L65" s="16"/>
     </row>
     <row r="66" spans="3:13" ht="100.5" customHeight="1">
-      <c r="C66" s="95"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="16"/>
       <c r="E66" s="71" t="s">
         <v>126</v>
@@ -3223,62 +3215,62 @@
       <c r="L66" s="16"/>
     </row>
     <row r="67" spans="3:13" ht="37.9" customHeight="1">
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="113" t="s">
+      <c r="D67" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="115"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="96"/>
       <c r="I67" s="16"/>
-      <c r="J67" s="113" t="s">
+      <c r="J67" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="K67" s="115"/>
+      <c r="K67" s="96"/>
       <c r="L67" s="16"/>
     </row>
     <row r="68" spans="3:13" ht="69" customHeight="1">
-      <c r="C68" s="94"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="57"/>
       <c r="E68" s="61" t="s">
         <v>129</v>
       </c>
       <c r="F68" s="58"/>
-      <c r="G68" s="113" t="s">
+      <c r="G68" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="H68" s="114"/>
-      <c r="I68" s="114"/>
-      <c r="J68" s="115"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="96"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
     </row>
     <row r="69" spans="3:13" ht="64.5" customHeight="1">
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="116" t="s">
+      <c r="D69" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="117"/>
+      <c r="E69" s="98"/>
       <c r="F69" s="53"/>
-      <c r="G69" s="97" t="s">
+      <c r="G69" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="H69" s="97"/>
+      <c r="H69" s="116"/>
       <c r="I69" s="53"/>
       <c r="J69" s="53"/>
       <c r="K69" s="53"/>
       <c r="L69" s="49"/>
     </row>
     <row r="70" spans="3:13" ht="73.5" customHeight="1">
-      <c r="C70" s="93"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="55"/>
       <c r="E70" s="78" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F70" s="53"/>
       <c r="G70" s="16"/>
@@ -3289,78 +3281,78 @@
       <c r="L70" s="49"/>
     </row>
     <row r="71" spans="3:13" ht="79.900000000000006" customHeight="1">
-      <c r="C71" s="95" t="s">
+      <c r="C71" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="D71" s="91" t="s">
+      <c r="D71" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="91"/>
+      <c r="E71" s="109"/>
       <c r="F71" s="74" t="s">
         <v>135</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
-      <c r="I71" s="91" t="s">
+      <c r="I71" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
+      <c r="J71" s="109"/>
+      <c r="K71" s="109"/>
       <c r="L71" s="16"/>
     </row>
     <row r="72" spans="3:13" ht="62.45" customHeight="1">
-      <c r="C72" s="95"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="52"/>
-      <c r="E72" s="91" t="s">
+      <c r="E72" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
       <c r="I72" s="16"/>
-      <c r="J72" s="103" t="s">
+      <c r="J72" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="K72" s="91"/>
+      <c r="K72" s="109"/>
       <c r="L72" s="16"/>
     </row>
     <row r="73" spans="3:13" ht="36" customHeight="1">
-      <c r="C73" s="95"/>
+      <c r="C73" s="99"/>
       <c r="D73" s="52"/>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="91"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="109"/>
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
     </row>
     <row r="74" spans="3:13" ht="36" customHeight="1">
-      <c r="C74" s="95"/>
+      <c r="C74" s="99"/>
       <c r="D74" s="52"/>
-      <c r="E74" s="91" t="s">
+      <c r="E74" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="109"/>
+      <c r="H74" s="109"/>
+      <c r="I74" s="109"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="109"/>
+      <c r="L74" s="109"/>
     </row>
     <row r="75" spans="3:13" ht="36" customHeight="1">
-      <c r="C75" s="95" t="s">
+      <c r="C75" s="99" t="s">
         <v>139</v>
       </c>
       <c r="D75" s="55"/>
-      <c r="E75" s="105" t="s">
+      <c r="E75" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F75" s="105"/>
+      <c r="F75" s="112"/>
       <c r="G75" s="55"/>
       <c r="H75" s="53"/>
       <c r="I75" s="53"/>
@@ -3370,14 +3362,14 @@
       <c r="M75" s="14"/>
     </row>
     <row r="76" spans="3:13" ht="36" customHeight="1">
-      <c r="C76" s="95"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="55"/>
       <c r="E76" s="68"/>
-      <c r="F76" s="120" t="s">
+      <c r="F76" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="G76" s="121"/>
-      <c r="H76" s="122"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="88"/>
       <c r="I76" s="53"/>
       <c r="J76" s="53"/>
       <c r="K76" s="53"/>
@@ -3385,7 +3377,7 @@
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="3:13" ht="58.9" customHeight="1">
-      <c r="C77" s="95"/>
+      <c r="C77" s="99"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="55"/>
@@ -3400,15 +3392,15 @@
       <c r="M77" s="14"/>
     </row>
     <row r="78" spans="3:13" ht="36" customHeight="1">
-      <c r="C78" s="92" t="s">
+      <c r="C78" s="91" t="s">
         <v>143</v>
       </c>
       <c r="D78" s="53"/>
       <c r="E78" s="53"/>
-      <c r="F78" s="104" t="s">
+      <c r="F78" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="G78" s="104"/>
+      <c r="G78" s="110"/>
       <c r="H78" s="53"/>
       <c r="I78" s="53"/>
       <c r="J78" s="53"/>
@@ -3417,14 +3409,14 @@
       <c r="M78" s="14"/>
     </row>
     <row r="79" spans="3:13" ht="36" customHeight="1">
-      <c r="C79" s="93"/>
+      <c r="C79" s="92"/>
       <c r="D79" s="53"/>
-      <c r="E79" s="100" t="s">
+      <c r="E79" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="101"/>
-      <c r="G79" s="101"/>
-      <c r="H79" s="102"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="85"/>
       <c r="I79" s="47"/>
       <c r="J79" s="47"/>
       <c r="K79" s="47"/>
@@ -3432,90 +3424,90 @@
       <c r="M79" s="14"/>
     </row>
     <row r="80" spans="3:13" ht="36" customHeight="1">
-      <c r="C80" s="93"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="53"/>
-      <c r="E80" s="100" t="s">
+      <c r="E80" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="102"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="85"/>
       <c r="K80" s="47"/>
       <c r="L80" s="47"/>
       <c r="M80" s="14"/>
     </row>
     <row r="81" spans="3:13" ht="36" customHeight="1">
-      <c r="C81" s="94"/>
+      <c r="C81" s="93"/>
       <c r="D81" s="53"/>
-      <c r="E81" s="100" t="s">
+      <c r="E81" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F81" s="101"/>
-      <c r="G81" s="101"/>
-      <c r="H81" s="101"/>
-      <c r="I81" s="101"/>
-      <c r="J81" s="101"/>
-      <c r="K81" s="101"/>
-      <c r="L81" s="102"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84"/>
+      <c r="K81" s="84"/>
+      <c r="L81" s="85"/>
       <c r="M81" s="14"/>
     </row>
     <row r="82" spans="3:13" ht="36" customHeight="1">
-      <c r="C82" s="92" t="s">
+      <c r="C82" s="91" t="s">
         <v>145</v>
       </c>
       <c r="D82" s="53"/>
-      <c r="E82" s="125" t="s">
+      <c r="E82" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="126"/>
-      <c r="K82" s="126"/>
-      <c r="L82" s="126"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="80"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="80"/>
       <c r="M82" s="14"/>
     </row>
     <row r="83" spans="3:13" ht="36" customHeight="1">
-      <c r="C83" s="93"/>
+      <c r="C83" s="92"/>
       <c r="D83" s="53"/>
-      <c r="E83" s="125" t="s">
+      <c r="E83" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="F83" s="125"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="125"/>
-      <c r="J83" s="125"/>
-      <c r="K83" s="126"/>
-      <c r="L83" s="126"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="111"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="111"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="80"/>
       <c r="M83" s="14"/>
     </row>
     <row r="84" spans="3:13" ht="36" customHeight="1">
-      <c r="C84" s="94"/>
+      <c r="C84" s="93"/>
       <c r="D84" s="53"/>
-      <c r="E84" s="125" t="s">
+      <c r="E84" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="F84" s="125"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="125"/>
-      <c r="J84" s="125"/>
-      <c r="K84" s="125"/>
-      <c r="L84" s="125"/>
+      <c r="F84" s="111"/>
+      <c r="G84" s="111"/>
+      <c r="H84" s="111"/>
+      <c r="I84" s="111"/>
+      <c r="J84" s="111"/>
+      <c r="K84" s="111"/>
+      <c r="L84" s="111"/>
       <c r="M84" s="14"/>
     </row>
     <row r="85" spans="3:13" ht="39.75" customHeight="1">
-      <c r="C85" s="95" t="s">
+      <c r="C85" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="99" t="s">
+      <c r="D85" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="E85" s="99"/>
+      <c r="E85" s="107"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
@@ -3525,35 +3517,35 @@
       <c r="L85" s="16"/>
     </row>
     <row r="86" spans="3:13" ht="34.5" customHeight="1">
-      <c r="C86" s="95"/>
+      <c r="C86" s="99"/>
       <c r="D86" s="63"/>
-      <c r="E86" s="99" t="s">
+      <c r="E86" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="F86" s="99"/>
-      <c r="G86" s="99"/>
-      <c r="H86" s="99"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="99"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
     </row>
     <row r="87" spans="3:13" ht="33" customHeight="1">
-      <c r="C87" s="95"/>
+      <c r="C87" s="99"/>
       <c r="D87" s="63"/>
-      <c r="E87" s="99" t="s">
+      <c r="E87" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="F87" s="99"/>
-      <c r="G87" s="99"/>
-      <c r="H87" s="99"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
       <c r="I87" s="58"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
     </row>
     <row r="88" spans="3:13" ht="39" customHeight="1">
-      <c r="C88" s="95"/>
+      <c r="C88" s="99"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="56" t="s">
@@ -3567,13 +3559,13 @@
       <c r="L88" s="16"/>
     </row>
     <row r="89" spans="3:13" ht="36" customHeight="1">
-      <c r="C89" s="95" t="s">
+      <c r="C89" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D89" s="90" t="s">
+      <c r="D89" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="90"/>
+      <c r="E89" s="114"/>
       <c r="F89" s="53"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
@@ -3583,35 +3575,35 @@
       <c r="L89" s="16"/>
     </row>
     <row r="90" spans="3:13" ht="36" customHeight="1">
-      <c r="C90" s="95"/>
+      <c r="C90" s="99"/>
       <c r="D90" s="53"/>
-      <c r="E90" s="98" t="s">
+      <c r="E90" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="F90" s="98"/>
-      <c r="G90" s="98"/>
-      <c r="H90" s="98"/>
-      <c r="I90" s="98"/>
-      <c r="J90" s="98"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="117"/>
+      <c r="I90" s="117"/>
+      <c r="J90" s="117"/>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
     </row>
     <row r="91" spans="3:13" ht="36" customHeight="1">
-      <c r="C91" s="95"/>
+      <c r="C91" s="99"/>
       <c r="D91" s="53"/>
-      <c r="E91" s="98" t="s">
+      <c r="E91" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="F91" s="98"/>
-      <c r="G91" s="98"/>
-      <c r="H91" s="98"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="117"/>
       <c r="I91" s="55"/>
       <c r="J91" s="53"/>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
     </row>
     <row r="92" spans="3:13" ht="81" customHeight="1">
-      <c r="C92" s="95"/>
+      <c r="C92" s="99"/>
       <c r="D92" s="53"/>
       <c r="E92" s="53"/>
       <c r="F92" s="77" t="s">
@@ -3850,38 +3842,22 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="E80:J80"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="E84:L84"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="E81:L81"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C27:K27"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="I71:K71"/>
@@ -3898,22 +3874,38 @@
     <mergeCell ref="E74:L74"/>
     <mergeCell ref="E73:J73"/>
     <mergeCell ref="E87:H87"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="E84:L84"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="E81:L81"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="E80:J80"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="G64:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3927,7 +3919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
